--- a/gitlab-github/gitlab-to-github.xlsx
+++ b/gitlab-github/gitlab-to-github.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\gitlab-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31D738-BE29-4373-B274-9C5E5E538996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034ACA0-C891-4968-8F11-1C5B9B994E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>the-example-app.nodejs</t>
   </si>
   <si>
-    <t>swathisabhahit</t>
-  </si>
-  <si>
     <t>vth1/test4</t>
   </si>
   <si>
     <t>ngnix_argo</t>
+  </si>
+  <si>
+    <t>vinayhegde105</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,13 +410,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-github/gitlab-to-github.xlsx
+++ b/gitlab-github/gitlab-to-github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\gitlab-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\gitlab-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034ACA0-C891-4968-8F11-1C5B9B994E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658A053-184B-4556-AD12-6AB711DB66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>sr</t>
   </si>
@@ -39,19 +39,25 @@
     <t>project_to_import</t>
   </si>
   <si>
-    <t>vth1/python3</t>
-  </si>
-  <si>
-    <t>the-example-app.nodejs</t>
-  </si>
-  <si>
-    <t>vth1/test4</t>
-  </si>
-  <si>
-    <t>ngnix_argo</t>
-  </si>
-  <si>
-    <t>vinayhegde105</t>
+    <t>repo-migration</t>
+  </si>
+  <si>
+    <t>code-migration</t>
+  </si>
+  <si>
+    <t>casa-build-utils</t>
+  </si>
+  <si>
+    <t>app-n-pak</t>
+  </si>
+  <si>
+    <t>almatasks</t>
+  </si>
+  <si>
+    <t>casa6</t>
+  </si>
+  <si>
+    <t>casashell</t>
   </si>
 </sst>
 </file>
@@ -95,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,13 +417,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -426,11 +433,53 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab-github/gitlab-to-github.xlsx
+++ b/gitlab-github/gitlab-to-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\gitlab-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658A053-184B-4556-AD12-6AB711DB66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E9124-A7F3-4AEA-BF2B-93DE85A3D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>repo-migration</t>
   </si>
   <si>
-    <t>code-migration</t>
-  </si>
-  <si>
     <t>casa-build-utils</t>
   </si>
   <si>
@@ -58,13 +55,16 @@
   </si>
   <si>
     <t>casashell</t>
+  </si>
+  <si>
+    <t>anilsb06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +393,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,11 +424,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,11 +438,11 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,11 +452,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,14 +480,15 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
